--- a/18 July 2022 ASDE Training - TOC-updated_10072022.xlsx
+++ b/18 July 2022 ASDE Training - TOC-updated_10072022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Local disk\sapient\10072022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CD8ABE2-7AFF-4960-BC67-838E45E9DF35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{721428DA-7257-46FC-AFC1-06654051B885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4422,8 +4422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G882"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A621" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D639" sqref="D639"/>
+    <sheetView tabSelected="1" topLeftCell="A746" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D726" sqref="D726"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" outlineLevelRow="1"/>
@@ -11200,7 +11200,7 @@
       <c r="A641" s="9"/>
       <c r="B641" s="9"/>
       <c r="C641" s="19"/>
-      <c r="D641" s="31" t="s">
+      <c r="D641" s="41" t="s">
         <v>488</v>
       </c>
       <c r="E641" s="11"/>
@@ -11211,7 +11211,7 @@
       <c r="A642" s="9"/>
       <c r="B642" s="9"/>
       <c r="C642" s="19"/>
-      <c r="D642" s="31" t="s">
+      <c r="D642" s="41" t="s">
         <v>489</v>
       </c>
       <c r="E642" s="10"/>
@@ -11233,7 +11233,7 @@
       <c r="A644" s="9"/>
       <c r="B644" s="9"/>
       <c r="C644" s="19"/>
-      <c r="D644" s="31" t="s">
+      <c r="D644" s="41" t="s">
         <v>491</v>
       </c>
       <c r="E644" s="11"/>
@@ -11244,7 +11244,7 @@
       <c r="A645" s="9"/>
       <c r="B645" s="9"/>
       <c r="C645" s="19"/>
-      <c r="D645" s="31" t="s">
+      <c r="D645" s="41" t="s">
         <v>492</v>
       </c>
       <c r="E645" s="11"/>
@@ -11255,7 +11255,7 @@
       <c r="A646" s="9"/>
       <c r="B646" s="9"/>
       <c r="C646" s="19"/>
-      <c r="D646" s="31" t="s">
+      <c r="D646" s="41" t="s">
         <v>493</v>
       </c>
       <c r="E646" s="11"/>
@@ -11266,7 +11266,7 @@
       <c r="A647" s="9"/>
       <c r="B647" s="9"/>
       <c r="C647" s="19"/>
-      <c r="D647" s="31" t="s">
+      <c r="D647" s="41" t="s">
         <v>494</v>
       </c>
       <c r="E647" s="11"/>
@@ -11277,7 +11277,7 @@
       <c r="A648" s="9"/>
       <c r="B648" s="9"/>
       <c r="C648" s="19"/>
-      <c r="D648" s="31" t="s">
+      <c r="D648" s="41" t="s">
         <v>495</v>
       </c>
       <c r="E648" s="11"/>
@@ -11288,7 +11288,7 @@
       <c r="A649" s="9"/>
       <c r="B649" s="9"/>
       <c r="C649" s="19"/>
-      <c r="D649" s="31" t="s">
+      <c r="D649" s="41" t="s">
         <v>496</v>
       </c>
       <c r="E649" s="10"/>
@@ -11299,7 +11299,7 @@
       <c r="A650" s="9"/>
       <c r="B650" s="9"/>
       <c r="C650" s="19"/>
-      <c r="D650" s="31" t="s">
+      <c r="D650" s="41" t="s">
         <v>497</v>
       </c>
       <c r="E650" s="11"/>
@@ -11310,7 +11310,7 @@
       <c r="A651" s="9"/>
       <c r="B651" s="9"/>
       <c r="C651" s="19"/>
-      <c r="D651" s="31" t="s">
+      <c r="D651" s="41" t="s">
         <v>498</v>
       </c>
       <c r="E651" s="11"/>
@@ -11325,7 +11325,7 @@
       <c r="C652" s="19" t="s">
         <v>499</v>
       </c>
-      <c r="D652" s="6" t="s">
+      <c r="D652" s="40" t="s">
         <v>500</v>
       </c>
       <c r="E652" s="11"/>
@@ -11349,7 +11349,7 @@
       <c r="A654" s="9"/>
       <c r="B654" s="9"/>
       <c r="C654" s="19"/>
-      <c r="D654" s="1" t="s">
+      <c r="D654" s="41" t="s">
         <v>502</v>
       </c>
       <c r="E654" s="11"/>
@@ -11360,7 +11360,7 @@
       <c r="A655" s="9"/>
       <c r="B655" s="9"/>
       <c r="C655" s="19"/>
-      <c r="D655" s="1" t="s">
+      <c r="D655" s="41" t="s">
         <v>503</v>
       </c>
       <c r="E655" s="11"/>
@@ -11371,7 +11371,7 @@
       <c r="A656" s="9"/>
       <c r="B656" s="9"/>
       <c r="C656" s="19"/>
-      <c r="D656" s="1" t="s">
+      <c r="D656" s="41" t="s">
         <v>504</v>
       </c>
       <c r="E656" s="10"/>
@@ -11393,7 +11393,7 @@
       <c r="A658" s="9"/>
       <c r="B658" s="9"/>
       <c r="C658" s="19"/>
-      <c r="D658" s="1" t="s">
+      <c r="D658" s="41" t="s">
         <v>506</v>
       </c>
       <c r="E658" s="11"/>
@@ -11404,7 +11404,7 @@
       <c r="A659" s="9"/>
       <c r="B659" s="9"/>
       <c r="C659" s="19"/>
-      <c r="D659" s="1" t="s">
+      <c r="D659" s="41" t="s">
         <v>507</v>
       </c>
       <c r="E659" s="11"/>
@@ -11415,7 +11415,7 @@
       <c r="A660" s="9"/>
       <c r="B660" s="9"/>
       <c r="C660" s="19"/>
-      <c r="D660" s="1" t="s">
+      <c r="D660" s="41" t="s">
         <v>508</v>
       </c>
       <c r="E660" s="10"/>
@@ -11437,7 +11437,7 @@
       <c r="A662" s="9"/>
       <c r="B662" s="9"/>
       <c r="C662" s="19"/>
-      <c r="D662" s="1" t="s">
+      <c r="D662" s="41" t="s">
         <v>510</v>
       </c>
       <c r="E662" s="11"/>
@@ -11470,7 +11470,7 @@
       <c r="A665" s="9"/>
       <c r="B665" s="9"/>
       <c r="C665" s="19"/>
-      <c r="D665" s="1" t="s">
+      <c r="D665" s="41" t="s">
         <v>513</v>
       </c>
       <c r="E665" s="11"/>
@@ -11481,7 +11481,7 @@
       <c r="A666" s="9"/>
       <c r="B666" s="9"/>
       <c r="C666" s="19"/>
-      <c r="D666" s="6" t="s">
+      <c r="D666" s="40" t="s">
         <v>514</v>
       </c>
       <c r="E666" s="10"/>
@@ -11492,7 +11492,7 @@
       <c r="A667" s="9"/>
       <c r="B667" s="9"/>
       <c r="C667" s="19"/>
-      <c r="D667" s="6" t="s">
+      <c r="D667" s="40" t="s">
         <v>515</v>
       </c>
       <c r="E667" s="10"/>
@@ -11503,7 +11503,7 @@
       <c r="A668" s="9"/>
       <c r="B668" s="9"/>
       <c r="C668" s="19"/>
-      <c r="D668" s="1" t="s">
+      <c r="D668" s="41" t="s">
         <v>516</v>
       </c>
       <c r="E668" s="11"/>
@@ -11514,7 +11514,7 @@
       <c r="A669" s="9"/>
       <c r="B669" s="9"/>
       <c r="C669" s="19"/>
-      <c r="D669" s="1" t="s">
+      <c r="D669" s="41" t="s">
         <v>517</v>
       </c>
       <c r="E669" s="11"/>
@@ -11527,7 +11527,7 @@
       <c r="C670" s="19" t="s">
         <v>518</v>
       </c>
-      <c r="D670" s="6" t="s">
+      <c r="D670" s="40" t="s">
         <v>519</v>
       </c>
       <c r="E670" s="11"/>
@@ -11538,7 +11538,7 @@
       <c r="A671" s="9"/>
       <c r="B671" s="9"/>
       <c r="C671" s="19"/>
-      <c r="D671" s="6" t="s">
+      <c r="D671" s="40" t="s">
         <v>520</v>
       </c>
       <c r="E671" s="11"/>
@@ -11549,7 +11549,7 @@
       <c r="A672" s="9"/>
       <c r="B672" s="9"/>
       <c r="C672" s="19"/>
-      <c r="D672" s="1" t="s">
+      <c r="D672" s="41" t="s">
         <v>521</v>
       </c>
       <c r="E672" s="10"/>
@@ -11560,7 +11560,7 @@
       <c r="A673" s="9"/>
       <c r="B673" s="9"/>
       <c r="C673" s="19"/>
-      <c r="D673" s="1" t="s">
+      <c r="D673" s="41" t="s">
         <v>522</v>
       </c>
       <c r="E673" s="10"/>
@@ -11571,7 +11571,7 @@
       <c r="A674" s="9"/>
       <c r="B674" s="9"/>
       <c r="C674" s="19"/>
-      <c r="D674" s="1" t="s">
+      <c r="D674" s="41" t="s">
         <v>523</v>
       </c>
       <c r="E674" s="11"/>
@@ -11582,7 +11582,7 @@
       <c r="A675" s="9"/>
       <c r="B675" s="9"/>
       <c r="C675" s="19"/>
-      <c r="D675" s="6" t="s">
+      <c r="D675" s="40" t="s">
         <v>524</v>
       </c>
       <c r="E675" s="11"/>
@@ -11593,7 +11593,7 @@
       <c r="A676" s="9"/>
       <c r="B676" s="9"/>
       <c r="C676" s="19"/>
-      <c r="D676" s="1" t="s">
+      <c r="D676" s="41" t="s">
         <v>525</v>
       </c>
       <c r="E676" s="11"/>
@@ -11604,7 +11604,7 @@
       <c r="A677" s="9"/>
       <c r="B677" s="9"/>
       <c r="C677" s="19"/>
-      <c r="D677" s="1" t="s">
+      <c r="D677" s="41" t="s">
         <v>526</v>
       </c>
       <c r="E677" s="10"/>
@@ -11615,7 +11615,7 @@
       <c r="A678" s="9"/>
       <c r="B678" s="9"/>
       <c r="C678" s="19"/>
-      <c r="D678" s="1" t="s">
+      <c r="D678" s="41" t="s">
         <v>527</v>
       </c>
       <c r="E678" s="11"/>
@@ -11626,7 +11626,7 @@
       <c r="A679" s="9"/>
       <c r="B679" s="9"/>
       <c r="C679" s="19"/>
-      <c r="D679" s="1" t="s">
+      <c r="D679" s="41" t="s">
         <v>528</v>
       </c>
       <c r="E679" s="11"/>
@@ -11648,7 +11648,7 @@
       <c r="A681" s="9"/>
       <c r="B681" s="9"/>
       <c r="C681" s="19"/>
-      <c r="D681" s="1" t="s">
+      <c r="D681" s="41" t="s">
         <v>530</v>
       </c>
       <c r="E681" s="11"/>
@@ -11659,7 +11659,7 @@
       <c r="A682" s="9"/>
       <c r="B682" s="9"/>
       <c r="C682" s="19"/>
-      <c r="D682" s="1" t="s">
+      <c r="D682" s="41" t="s">
         <v>531</v>
       </c>
       <c r="E682" s="11"/>
@@ -11670,7 +11670,7 @@
       <c r="A683" s="9"/>
       <c r="B683" s="9"/>
       <c r="C683" s="19"/>
-      <c r="D683" s="1" t="s">
+      <c r="D683" s="41" t="s">
         <v>532</v>
       </c>
       <c r="E683" s="11"/>
@@ -11681,7 +11681,7 @@
       <c r="A684" s="9"/>
       <c r="B684" s="9"/>
       <c r="C684" s="19"/>
-      <c r="D684" s="1" t="s">
+      <c r="D684" s="41" t="s">
         <v>533</v>
       </c>
       <c r="E684" s="10"/>
@@ -11692,7 +11692,7 @@
       <c r="A685" s="9"/>
       <c r="B685" s="9"/>
       <c r="C685" s="19"/>
-      <c r="D685" s="1" t="s">
+      <c r="D685" s="41" t="s">
         <v>534</v>
       </c>
       <c r="E685" s="11"/>
@@ -11716,7 +11716,7 @@
       <c r="A687" s="9"/>
       <c r="B687" s="9"/>
       <c r="C687" s="19"/>
-      <c r="D687" s="1" t="s">
+      <c r="D687" s="41" t="s">
         <v>537</v>
       </c>
       <c r="E687" s="11"/>
@@ -11749,7 +11749,7 @@
       <c r="A690" s="9"/>
       <c r="B690" s="9"/>
       <c r="C690" s="19"/>
-      <c r="D690" s="1" t="s">
+      <c r="D690" s="41" t="s">
         <v>540</v>
       </c>
       <c r="E690" s="11"/>
@@ -11760,7 +11760,7 @@
       <c r="A691" s="9"/>
       <c r="B691" s="9"/>
       <c r="C691" s="19"/>
-      <c r="D691" s="1" t="s">
+      <c r="D691" s="41" t="s">
         <v>541</v>
       </c>
       <c r="E691" s="11"/>
@@ -11771,7 +11771,7 @@
       <c r="A692" s="9"/>
       <c r="B692" s="9"/>
       <c r="C692" s="19"/>
-      <c r="D692" s="1" t="s">
+      <c r="D692" s="41" t="s">
         <v>542</v>
       </c>
       <c r="E692" s="11"/>
@@ -11782,7 +11782,7 @@
       <c r="A693" s="9"/>
       <c r="B693" s="9"/>
       <c r="C693" s="19"/>
-      <c r="D693" s="1" t="s">
+      <c r="D693" s="41" t="s">
         <v>543</v>
       </c>
       <c r="E693" s="11"/>
@@ -11793,7 +11793,7 @@
       <c r="A694" s="9"/>
       <c r="B694" s="9"/>
       <c r="C694" s="19"/>
-      <c r="D694" s="1" t="s">
+      <c r="D694" s="41" t="s">
         <v>544</v>
       </c>
       <c r="E694" s="11"/>
@@ -11804,7 +11804,7 @@
       <c r="A695" s="9"/>
       <c r="B695" s="9"/>
       <c r="C695" s="19"/>
-      <c r="D695" s="1" t="s">
+      <c r="D695" s="41" t="s">
         <v>545</v>
       </c>
       <c r="E695" s="11"/>
@@ -11826,7 +11826,7 @@
       <c r="A697" s="9"/>
       <c r="B697" s="9"/>
       <c r="C697" s="20"/>
-      <c r="D697" s="16" t="s">
+      <c r="D697" s="39" t="s">
         <v>547</v>
       </c>
       <c r="E697" s="10"/>
@@ -11837,7 +11837,7 @@
       <c r="A698" s="9"/>
       <c r="B698" s="9"/>
       <c r="C698" s="20"/>
-      <c r="D698" s="16" t="s">
+      <c r="D698" s="39" t="s">
         <v>548</v>
       </c>
       <c r="E698" s="11"/>
@@ -11848,7 +11848,7 @@
       <c r="A699" s="9"/>
       <c r="B699" s="9"/>
       <c r="C699" s="20"/>
-      <c r="D699" s="16" t="s">
+      <c r="D699" s="39" t="s">
         <v>549</v>
       </c>
       <c r="E699" s="11"/>
@@ -11881,7 +11881,7 @@
       <c r="A702" s="9"/>
       <c r="B702" s="9"/>
       <c r="C702" s="20"/>
-      <c r="D702" s="16" t="s">
+      <c r="D702" s="39" t="s">
         <v>552</v>
       </c>
       <c r="E702" s="11"/>
@@ -11892,7 +11892,7 @@
       <c r="A703" s="9"/>
       <c r="B703" s="9"/>
       <c r="C703" s="20"/>
-      <c r="D703" s="16" t="s">
+      <c r="D703" s="39" t="s">
         <v>553</v>
       </c>
       <c r="E703" s="11"/>
@@ -11903,7 +11903,7 @@
       <c r="A704" s="9"/>
       <c r="B704" s="9"/>
       <c r="C704" s="20"/>
-      <c r="D704" s="16" t="s">
+      <c r="D704" s="39" t="s">
         <v>554</v>
       </c>
       <c r="E704" s="11"/>
@@ -11914,7 +11914,7 @@
       <c r="A705" s="9"/>
       <c r="B705" s="9"/>
       <c r="C705" s="20"/>
-      <c r="D705" s="16" t="s">
+      <c r="D705" s="39" t="s">
         <v>555</v>
       </c>
       <c r="E705" s="10"/>
@@ -11925,7 +11925,7 @@
       <c r="A706" s="9"/>
       <c r="B706" s="9"/>
       <c r="C706" s="20"/>
-      <c r="D706" s="16" t="s">
+      <c r="D706" s="39" t="s">
         <v>556</v>
       </c>
       <c r="E706" s="11"/>
@@ -11936,7 +11936,7 @@
       <c r="A707" s="9"/>
       <c r="B707" s="9"/>
       <c r="C707" s="20"/>
-      <c r="D707" s="16" t="s">
+      <c r="D707" s="39" t="s">
         <v>557</v>
       </c>
       <c r="E707" s="11"/>
@@ -11947,7 +11947,7 @@
       <c r="A708" s="9"/>
       <c r="B708" s="9"/>
       <c r="C708" s="20"/>
-      <c r="D708" s="16" t="s">
+      <c r="D708" s="39" t="s">
         <v>558</v>
       </c>
       <c r="E708" s="11"/>
@@ -11986,7 +11986,7 @@
       <c r="A711" s="9"/>
       <c r="B711" s="9"/>
       <c r="C711" s="19"/>
-      <c r="D711" s="1" t="s">
+      <c r="D711" s="41" t="s">
         <v>561</v>
       </c>
       <c r="E711" s="10"/>
@@ -11997,7 +11997,7 @@
       <c r="A712" s="9"/>
       <c r="B712" s="9"/>
       <c r="C712" s="19"/>
-      <c r="D712" s="1" t="s">
+      <c r="D712" s="41" t="s">
         <v>562</v>
       </c>
       <c r="E712" s="11"/>
@@ -12021,7 +12021,7 @@
       <c r="C714" s="19" t="s">
         <v>564</v>
       </c>
-      <c r="D714" s="6" t="s">
+      <c r="D714" s="40" t="s">
         <v>565</v>
       </c>
       <c r="E714" s="10"/>
@@ -12032,7 +12032,7 @@
       <c r="A715" s="9"/>
       <c r="B715" s="9"/>
       <c r="C715" s="19"/>
-      <c r="D715" s="6" t="s">
+      <c r="D715" s="40" t="s">
         <v>566</v>
       </c>
       <c r="E715" s="10"/>
@@ -12043,7 +12043,7 @@
       <c r="A716" s="9"/>
       <c r="B716" s="9"/>
       <c r="C716" s="19"/>
-      <c r="D716" s="1" t="s">
+      <c r="D716" s="41" t="s">
         <v>567</v>
       </c>
       <c r="E716" s="11"/>
@@ -12054,7 +12054,7 @@
       <c r="A717" s="9"/>
       <c r="B717" s="9"/>
       <c r="C717" s="19"/>
-      <c r="D717" s="1" t="s">
+      <c r="D717" s="41" t="s">
         <v>568</v>
       </c>
       <c r="E717" s="11"/>
@@ -12065,7 +12065,7 @@
       <c r="A718" s="9"/>
       <c r="B718" s="9"/>
       <c r="C718" s="19"/>
-      <c r="D718" s="1" t="s">
+      <c r="D718" s="41" t="s">
         <v>569</v>
       </c>
       <c r="E718" s="11"/>
@@ -12076,7 +12076,7 @@
       <c r="A719" s="9"/>
       <c r="B719" s="9"/>
       <c r="C719" s="19"/>
-      <c r="D719" s="1" t="s">
+      <c r="D719" s="41" t="s">
         <v>570</v>
       </c>
       <c r="E719" s="10"/>
@@ -12087,7 +12087,7 @@
       <c r="A720" s="9"/>
       <c r="B720" s="9"/>
       <c r="C720" s="19"/>
-      <c r="D720" s="1" t="s">
+      <c r="D720" s="41" t="s">
         <v>571</v>
       </c>
       <c r="E720" s="11"/>
@@ -12098,7 +12098,7 @@
       <c r="A721" s="9"/>
       <c r="B721" s="9"/>
       <c r="C721" s="19"/>
-      <c r="D721" s="1" t="s">
+      <c r="D721" s="41" t="s">
         <v>109</v>
       </c>
       <c r="E721" s="11"/>
@@ -12109,7 +12109,7 @@
       <c r="A722" s="9"/>
       <c r="B722" s="9"/>
       <c r="C722" s="19"/>
-      <c r="D722" s="1" t="s">
+      <c r="D722" s="41" t="s">
         <v>572</v>
       </c>
       <c r="E722" s="11"/>
@@ -12120,7 +12120,7 @@
       <c r="A723" s="9"/>
       <c r="B723" s="9"/>
       <c r="C723" s="19"/>
-      <c r="D723" s="1" t="s">
+      <c r="D723" s="41" t="s">
         <v>573</v>
       </c>
       <c r="E723" s="11"/>
@@ -12131,7 +12131,7 @@
       <c r="A724" s="9"/>
       <c r="B724" s="9"/>
       <c r="C724" s="19"/>
-      <c r="D724" s="1" t="s">
+      <c r="D724" s="41" t="s">
         <v>574</v>
       </c>
       <c r="E724" s="10"/>
@@ -12153,7 +12153,7 @@
       <c r="A726" s="9"/>
       <c r="B726" s="9"/>
       <c r="C726" s="19"/>
-      <c r="D726" s="6" t="s">
+      <c r="D726" s="40" t="s">
         <v>576</v>
       </c>
       <c r="E726" s="11"/>
@@ -12164,7 +12164,7 @@
       <c r="A727" s="9"/>
       <c r="B727" s="9"/>
       <c r="C727" s="19"/>
-      <c r="D727" s="1" t="s">
+      <c r="D727" s="41" t="s">
         <v>577</v>
       </c>
       <c r="E727" s="11"/>
@@ -12175,7 +12175,7 @@
       <c r="A728" s="9"/>
       <c r="B728" s="9"/>
       <c r="C728" s="19"/>
-      <c r="D728" s="1" t="s">
+      <c r="D728" s="41" t="s">
         <v>578</v>
       </c>
       <c r="E728" s="11"/>
@@ -12186,7 +12186,7 @@
       <c r="A729" s="9"/>
       <c r="B729" s="9"/>
       <c r="C729" s="19"/>
-      <c r="D729" s="6" t="s">
+      <c r="D729" s="40" t="s">
         <v>579</v>
       </c>
       <c r="E729" s="11"/>
@@ -12197,7 +12197,7 @@
       <c r="A730" s="9"/>
       <c r="B730" s="9"/>
       <c r="C730" s="19"/>
-      <c r="D730" s="6" t="s">
+      <c r="D730" s="40" t="s">
         <v>580</v>
       </c>
       <c r="E730" s="10"/>
